--- a/bots/crawl_ch/output/vegi_coop_2023-03-04.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-03-04.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -2808,7 +2808,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -3758,7 +3758,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -4103,7 +4103,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4172,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -4306,7 +4306,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -4444,7 +4444,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4578,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4716,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -5051,13 +5051,13 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Fine Food Tomaten Red Desire 5.95 Schweizer Franken</t>
+          <t>Fine Food Tomaten Red Desire - Online kein Bestand 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -5398,7 +5398,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -5463,7 +5463,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -5605,7 +5605,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -5674,7 +5674,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -5792,7 +5792,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -6064,7 +6064,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -6133,7 +6133,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -6198,7 +6198,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -6332,7 +6332,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -6401,7 +6401,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -6466,7 +6466,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -6604,7 +6604,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -6673,7 +6673,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -6742,7 +6742,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -6815,7 +6815,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -6880,7 +6880,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -6949,7 +6949,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -7018,7 +7018,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -7148,7 +7148,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -7213,7 +7213,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -7282,7 +7282,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -7347,7 +7347,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7416,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -7481,7 +7481,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -7546,7 +7546,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -7680,7 +7680,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -7733,7 +7733,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -7802,7 +7802,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -7867,7 +7867,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -7936,7 +7936,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -8066,7 +8066,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Jungsalat 4.30 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Jungsalat - Online kein Bestand 4.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -8204,7 +8204,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -8338,7 +8338,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -8407,7 +8407,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -8476,7 +8476,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -8545,7 +8545,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -8614,7 +8614,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -8679,7 +8679,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -8748,7 +8748,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -8817,7 +8817,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -8882,7 +8882,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -9020,7 +9020,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -9089,7 +9089,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -9158,7 +9158,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -9304,7 +9304,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -9373,7 +9373,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -9442,7 +9442,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -9580,7 +9580,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -9722,7 +9722,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9791,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -9860,7 +9860,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -9925,7 +9925,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -9994,7 +9994,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -10059,7 +10059,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -10128,7 +10128,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -10197,7 +10197,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -10262,7 +10262,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -10331,7 +10331,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -10400,7 +10400,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -10473,7 +10473,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -10538,7 +10538,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -10611,7 +10611,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -10676,7 +10676,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -10723,7 +10723,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -10792,7 +10792,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -10861,7 +10861,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -10930,7 +10930,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -11119,7 +11119,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -11188,7 +11188,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -11326,7 +11326,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -11399,7 +11399,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -11468,7 +11468,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -11537,7 +11537,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -11740,7 +11740,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -11882,7 +11882,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -11951,7 +11951,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -12016,7 +12016,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -12085,7 +12085,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -12154,7 +12154,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -12223,7 +12223,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -12276,7 +12276,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -12422,7 +12422,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -12491,7 +12491,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -12564,7 +12564,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -12633,7 +12633,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -12706,7 +12706,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -12775,7 +12775,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -12844,7 +12844,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -12913,7 +12913,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -12982,7 +12982,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -13055,7 +13055,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -13120,7 +13120,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -13185,7 +13185,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -13250,7 +13250,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -13319,7 +13319,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -13392,7 +13392,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -13465,7 +13465,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -13530,7 +13530,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -13599,7 +13599,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -13668,7 +13668,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -13806,7 +13806,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -13879,7 +13879,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -13948,7 +13948,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -14017,7 +14017,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -14082,7 +14082,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -14151,7 +14151,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -14216,7 +14216,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -14285,7 +14285,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -14358,7 +14358,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -14427,7 +14427,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -14500,7 +14500,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -14565,7 +14565,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -14634,7 +14634,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -14701,7 +14701,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -14770,7 +14770,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -14839,7 +14839,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -14912,7 +14912,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -14981,7 +14981,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -15046,7 +15046,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -15119,7 +15119,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -15188,7 +15188,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -15257,7 +15257,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -15326,141 +15326,141 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>6495910</t>
+          <t>3435787</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Prix Garantie Kabis rot ca. 1kg</t>
+          <t>Peperoni Padron</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/rosenkohl-kabis/prix-garantie-kabis-rot-ca/p/6495910</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/peperoni/peperoni-padron/p/3435787</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+      <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2.00/1kg</t>
+          <t>0.96/100g</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'rosenkohl-kabis']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'peperoni']</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>Prix Garantie Kabis rot ca. 1kg 2.00 Schweizer Franken</t>
+          <t>Peperoni Padron 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>3435787</t>
+          <t>6495910</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Peperoni Padron</t>
+          <t>Prix Garantie Kabis rot ca. 1kg</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/peperoni/peperoni-padron/p/3435787</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/rosenkohl-kabis/prix-garantie-kabis-rot-ca/p/6495910</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
       </c>
-      <c r="F221" t="inlineStr"/>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>0.96/100g</t>
+          <t>2.00/1kg</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'peperoni']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'rosenkohl-kabis']</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>Peperoni Padron 2.40 Schweizer Franken</t>
+          <t>Prix Garantie Kabis rot ca. 1kg 2.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -15527,7 +15527,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -15592,7 +15592,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -15661,7 +15661,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -15726,7 +15726,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -15795,7 +15795,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -15864,7 +15864,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -15937,7 +15937,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -16010,7 +16010,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -16079,7 +16079,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -16148,7 +16148,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -16217,7 +16217,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -16282,7 +16282,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -16351,7 +16351,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16416,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -16485,7 +16485,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -16550,7 +16550,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -16623,7 +16623,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -16692,7 +16692,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -16834,7 +16834,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -16899,7 +16899,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -16968,7 +16968,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -17041,7 +17041,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -17114,7 +17114,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -17183,7 +17183,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -17232,7 +17232,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -17301,7 +17301,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -17370,7 +17370,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -17443,7 +17443,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -17516,7 +17516,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -17589,7 +17589,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -17654,7 +17654,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -17719,7 +17719,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -17792,7 +17792,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -17861,7 +17861,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -17930,7 +17930,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>Betty Bossi Kopfsalat mit Herzen 23% Aktion 4.95 Schweizer Franken statt 6.50 Schweizer Franken</t>
+          <t>Betty Bossi Kopfsalat mit Herzen - Online kein Bestand 23% Aktion 4.95 Schweizer Franken statt 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
@@ -18001,7 +18001,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -18070,7 +18070,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -18139,7 +18139,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -18212,7 +18212,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -18277,7 +18277,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -18346,7 +18346,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -18419,7 +18419,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -18565,7 +18565,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -18638,7 +18638,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -18711,7 +18711,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -18780,7 +18780,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -18845,7 +18845,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -18910,7 +18910,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -18983,7 +18983,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -19052,7 +19052,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -19125,7 +19125,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -19198,7 +19198,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -19263,7 +19263,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -19328,7 +19328,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -19401,7 +19401,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -19470,7 +19470,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -19535,7 +19535,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -19608,7 +19608,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -19673,7 +19673,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -19742,7 +19742,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -19809,7 +19809,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -19882,7 +19882,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -19947,7 +19947,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -20016,7 +20016,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -20085,7 +20085,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -20154,7 +20154,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -20227,7 +20227,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -20294,7 +20294,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -20359,7 +20359,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -20428,7 +20428,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -20501,7 +20501,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -20566,7 +20566,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -20635,7 +20635,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -20708,7 +20708,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -20773,7 +20773,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -20842,7 +20842,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -20911,7 +20911,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -20980,7 +20980,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -21053,7 +21053,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -21106,7 +21106,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -21179,7 +21179,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -21248,7 +21248,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -21313,7 +21313,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -21386,7 +21386,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -21451,7 +21451,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -21514,7 +21514,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -21583,7 +21583,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -21648,7 +21648,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -21711,7 +21711,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -21784,7 +21784,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -21849,7 +21849,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -21922,7 +21922,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -21991,24 +21991,24 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>3385979</t>
+          <t>3754017</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mischsalat</t>
+          <t>Naturaplan Bio Fairtrade Datteln</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-mischsalat/p/3385979</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/naturaplan-bio-fairtrade-datteln/p/3754017</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -22024,12 +22024,12 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>1.76/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -22039,7 +22039,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -22049,39 +22049,35 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mischsalat 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N317" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Fairtrade Datteln 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>3754017</t>
+          <t>3385979</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Fairtrade Datteln</t>
+          <t>Naturaplan Bio Mischsalat</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/naturaplan-bio-fairtrade-datteln/p/3754017</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-mischsalat/p/3385979</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -22097,12 +22093,12 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>1.76/100g</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -22112,7 +22108,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -22122,18 +22118,22 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Fairtrade Datteln 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N318" t="inlineStr"/>
+          <t>Naturaplan Bio Mischsalat 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -22206,7 +22206,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -22279,31 +22279,31 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>3491277</t>
+          <t>6638724</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Rotkraut gekocht</t>
+          <t>Betty Bossi Coleslaw Salat</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/betty-bossi-naturaplan-bio-rotkraut-gekocht/p/3491277</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-coleslaw-salat/p/6638724</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E321" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -22312,12 +22312,12 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>1.35/100g</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -22327,7 +22327,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -22337,22 +22337,22 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Rotkraut gekocht 2.50 Schweizer Franken</t>
+          <t>Betty Bossi Coleslaw Salat 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -22417,31 +22417,31 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>6638724</t>
+          <t>3491277</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Betty Bossi Coleslaw Salat</t>
+          <t>Betty Bossi Naturaplan Bio Rotkraut gekocht</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-coleslaw-salat/p/6638724</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/betty-bossi-naturaplan-bio-rotkraut-gekocht/p/3491277</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E323" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -22450,12 +22450,12 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>1.35/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -22465,7 +22465,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -22475,22 +22475,22 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>Betty Bossi Coleslaw Salat 4.20 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Rotkraut gekocht 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -22553,7 +22553,7 @@
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Gartensalat 3.80 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Gartensalat - Online kein Bestand 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N324" t="inlineStr">
@@ -22563,7 +22563,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -22636,7 +22636,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -22703,7 +22703,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -22776,7 +22776,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -22841,7 +22841,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -22910,7 +22910,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -22983,7 +22983,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -23048,7 +23048,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -23117,7 +23117,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -23190,7 +23190,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -23263,7 +23263,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -23336,45 +23336,41 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>6868469</t>
+          <t>6699491</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Yolo Crispy Burger 2x100g</t>
+          <t>Snack Kastanien</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/yolo-crispy-burger-2x100g/p/6868469</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/snack-kastanien/p/6699491</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E336" t="n">
-        <v>5</v>
-      </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>Yolo</t>
-        </is>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>3.50/100g</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -23384,7 +23380,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -23394,58 +23390,56 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>Yolo Crispy Burger 2x100g 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N336" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Snack Kastanien 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>6590457</t>
+          <t>6868469</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Eisberg</t>
+          <t>Yolo Crispy Burger 2x100g</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-eisberg/p/6590457</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/yolo-crispy-burger-2x100g/p/6868469</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>11</v>
+      </c>
       <c r="E337" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>1.67/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -23455,7 +23449,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -23465,52 +23459,58 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Eisberg 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N337" t="inlineStr"/>
+          <t>Yolo Crispy Burger 2x100g 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>6699491</t>
+          <t>6590457</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Snack Kastanien</t>
+          <t>Naturaplan Bio Eisberg</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/snack-kastanien/p/6699491</t>
-        </is>
-      </c>
-      <c r="D338" t="n">
-        <v>5</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-eisberg/p/6590457</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr"/>
       <c r="E338" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F338" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>3.50/100g</t>
+          <t>1.67/100g</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -23520,7 +23520,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -23530,18 +23530,18 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>Snack Kastanien 3.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Eisberg 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -23606,7 +23606,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -23679,7 +23679,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -23748,7 +23748,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -23817,7 +23817,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -23890,7 +23890,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -23963,7 +23963,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -24109,7 +24109,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -24174,7 +24174,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -24247,7 +24247,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -24320,7 +24320,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -24383,7 +24383,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -24456,7 +24456,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -24525,7 +24525,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -24594,7 +24594,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -24659,7 +24659,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -24728,7 +24728,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -24797,7 +24797,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -24866,7 +24866,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -24931,7 +24931,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -25000,31 +25000,31 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>6803514</t>
+          <t>4234715</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Prix Garantie veganes Hack</t>
+          <t>Naturaplan Bio Topinambur</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/prix-garantie-veganes-hack/p/6803514</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/naturaplan-bio-topinambur/p/4234715</t>
         </is>
       </c>
       <c r="D360" t="n">
         <v>9</v>
       </c>
       <c r="E360" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
@@ -25033,12 +25033,12 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>1.20/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25048,7 +25048,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25058,46 +25058,42 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Prix Garantie veganes Hack 3.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N360" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Topinambur 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>4234715</t>
+          <t>6803514</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Topinambur</t>
+          <t>Prix Garantie veganes Hack</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/naturaplan-bio-topinambur/p/4234715</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/prix-garantie-veganes-hack/p/6803514</t>
         </is>
       </c>
       <c r="D361" t="n">
         <v>9</v>
       </c>
       <c r="E361" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -25106,12 +25102,12 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>1.20/100g</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -25121,7 +25117,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -25131,18 +25127,22 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Topinambur 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N361" t="inlineStr"/>
+          <t>Prix Garantie veganes Hack 3.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -25215,7 +25215,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -25280,7 +25280,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -25353,7 +25353,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -25426,7 +25426,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -25491,7 +25491,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -25560,7 +25560,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -25633,7 +25633,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -25706,7 +25706,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -25775,31 +25775,31 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>4617929</t>
+          <t>4542971</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Délicorn Cordon bleu aus Seitan 2 Stück</t>
+          <t>Betty Bossi Kürbis-Würfel</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-cordon-bleu-aus-seitan-2-stueck/p/4617929</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-wuerfel/p/4542971</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E371" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -25808,12 +25808,12 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>0.99/100g</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -25823,7 +25823,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -25833,46 +25833,46 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Délicorn Cordon bleu aus Seitan 2 Stück 4.95 Schweizer Franken</t>
+          <t>Betty Bossi Kürbis-Würfel 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>4542971</t>
+          <t>3694215</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis-Würfel</t>
+          <t>Fine Food Knoblauch geräuchert 2 Stück</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-wuerfel/p/4542971</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/zwiebeln-knoblauch/fine-food-knoblauch-geraeuchert-2-stueck/p/3694215</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E372" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
@@ -25881,71 +25881,67 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>0.99/100g</t>
+          <t>2.48/1ST</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'zwiebeln-knoblauch']</t>
         </is>
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis-Würfel 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N372" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Fine Food Knoblauch geräuchert 2 Stück 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>3694215</t>
+          <t>4617929</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Fine Food Knoblauch geräuchert 2 Stück</t>
+          <t>Délicorn Cordon bleu aus Seitan 2 Stück</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/zwiebeln-knoblauch/fine-food-knoblauch-geraeuchert-2-stueck/p/3694215</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-cordon-bleu-aus-seitan-2-stueck/p/4617929</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E373" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
@@ -25959,38 +25955,42 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>2.48/1ST</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'zwiebeln-knoblauch']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>Fine Food Knoblauch geräuchert 2 Stück 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N373" t="inlineStr"/>
+          <t>Délicorn Cordon bleu aus Seitan 2 Stück 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -26063,7 +26063,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -26132,7 +26132,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -26205,7 +26205,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -26278,7 +26278,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -26347,145 +26347,145 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>3090915</t>
+          <t>6787689</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Spargeln grün</t>
+          <t>Yolo Cold Slices Nature</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargeln-gruen/p/3090915</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/yolo-cold-slices-nature/p/6787689</t>
         </is>
       </c>
       <c r="D379" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E379" t="n">
-        <v>4</v>
-      </c>
-      <c r="F379" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>Yolo</t>
+        </is>
+      </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>9.95/1kg</t>
+          <t>4.00/100g</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>Spargeln grün 9.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N379" t="inlineStr"/>
+          <t>Yolo Cold Slices Nature 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N379" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>6787689</t>
+          <t>3090915</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Yolo Cold Slices Nature</t>
+          <t>Spargeln grün</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/yolo-cold-slices-nature/p/6787689</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargeln-gruen/p/3090915</t>
         </is>
       </c>
       <c r="D380" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E380" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F380" t="inlineStr">
-        <is>
-          <t>Yolo</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F380" t="inlineStr"/>
       <c r="G380" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>4.00/100g</t>
+          <t>9.95/1kg</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
         </is>
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>Yolo Cold Slices Nature 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N380" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Spargeln grün 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -26554,7 +26554,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -26607,7 +26607,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -26676,7 +26676,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -26749,7 +26749,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -26822,7 +26822,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -26895,7 +26895,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -26964,7 +26964,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -27037,7 +27037,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -27106,7 +27106,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -27179,7 +27179,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -27246,7 +27246,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -27319,7 +27319,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -27392,7 +27392,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -27465,7 +27465,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -27530,7 +27530,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -27603,7 +27603,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -27672,7 +27672,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -27745,7 +27745,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -27818,7 +27818,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -27891,7 +27891,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -27964,7 +27964,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -28037,7 +28037,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -28102,7 +28102,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -28171,7 +28171,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -28238,7 +28238,7 @@
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -28311,45 +28311,45 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>6638599</t>
+          <t>6814802</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Betty Bossi Taboulé Salat</t>
+          <t>The Green Mountain plant-based Aufschnitt</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-taboule-salat/p/6638599</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-aufschnitt/p/6814802</t>
         </is>
       </c>
       <c r="D407" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E407" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>2.00/100g</t>
+          <t>4.95/100g</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -28359,7 +28359,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -28369,12 +28369,12 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>Betty Bossi Taboulé Salat 5.20 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Aufschnitt 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N407" t="inlineStr">
@@ -28384,45 +28384,45 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>6814802</t>
+          <t>6614732</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Aufschnitt</t>
+          <t>Yolo vegan Tatar</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-aufschnitt/p/6814802</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-vegan-tatar/p/6614732</t>
         </is>
       </c>
       <c r="D408" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E408" t="n">
         <v>4</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>4.95/100g</t>
+          <t>2.32/100g</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -28432,7 +28432,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -28442,12 +28442,12 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Aufschnitt 4.95 Schweizer Franken</t>
+          <t>Yolo vegan Tatar 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N408" t="inlineStr">
@@ -28457,45 +28457,45 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>6614732</t>
+          <t>6638599</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Yolo vegan Tatar</t>
+          <t>Betty Bossi Taboulé Salat</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-vegan-tatar/p/6614732</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-taboule-salat/p/6638599</t>
         </is>
       </c>
       <c r="D409" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>2.32/100g</t>
+          <t>2.00/100g</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -28505,7 +28505,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -28515,12 +28515,12 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M409" t="inlineStr">
         <is>
-          <t>Yolo vegan Tatar 3.95 Schweizer Franken</t>
+          <t>Betty Bossi Taboulé Salat 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N409" t="inlineStr">
@@ -28530,7 +28530,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -28597,7 +28597,7 @@
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -28670,7 +28670,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -28743,7 +28743,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -28816,7 +28816,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -28885,7 +28885,7 @@
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -28958,7 +28958,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -29023,7 +29023,7 @@
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -29094,7 +29094,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -29167,7 +29167,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -29240,7 +29240,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -29313,7 +29313,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -29382,7 +29382,7 @@
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -29455,7 +29455,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -29528,7 +29528,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -29601,7 +29601,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -29672,7 +29672,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -29745,7 +29745,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -29818,7 +29818,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -29883,7 +29883,7 @@
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -29956,7 +29956,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -30029,7 +30029,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -30102,7 +30102,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -30165,7 +30165,7 @@
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -30234,7 +30234,7 @@
       <c r="N433" t="inlineStr"/>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -30303,7 +30303,7 @@
       <c r="N434" t="inlineStr"/>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -30376,7 +30376,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -30449,7 +30449,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -30520,7 +30520,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -30593,7 +30593,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -30666,7 +30666,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -30739,7 +30739,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -30804,7 +30804,7 @@
       <c r="N441" t="inlineStr"/>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -30869,7 +30869,7 @@
       <c r="N442" t="inlineStr"/>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -30940,7 +30940,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -31011,7 +31011,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -31080,7 +31080,7 @@
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -31153,7 +31153,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -31226,7 +31226,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -31299,7 +31299,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -31372,7 +31372,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -31445,29 +31445,31 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>6076334</t>
+          <t>4160317</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Délicorn Schnitzel mit Käsefüllung</t>
+          <t>Délicorn BBQ Grillsteak 2 x100g</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-schnitzel-mit-kaesefuellung/p/6076334</t>
-        </is>
-      </c>
-      <c r="D451" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/steaks-filets/delicorn-bbq-grillsteak-2-x100g/p/4160317</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>36</v>
+      </c>
       <c r="E451" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F451" t="inlineStr">
         <is>
@@ -31476,12 +31478,12 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>2.90/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -31491,7 +31493,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -31501,46 +31503,44 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'steaks-filets']</t>
         </is>
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t>Délicorn Schnitzel mit Käsefüllung 6.95 Schweizer Franken</t>
+          <t>Délicorn BBQ Grillsteak 2 x100g 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>4160317</t>
+          <t>6076334</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Délicorn BBQ Grillsteak 2 x100g</t>
+          <t>Délicorn Schnitzel mit Käsefüllung</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/steaks-filets/delicorn-bbq-grillsteak-2-x100g/p/4160317</t>
-        </is>
-      </c>
-      <c r="D452" t="n">
-        <v>36</v>
-      </c>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-schnitzel-mit-kaesefuellung/p/6076334</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr"/>
       <c r="E452" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F452" t="inlineStr">
         <is>
@@ -31549,12 +31549,12 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>2.90/100g</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -31564,7 +31564,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -31574,22 +31574,22 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'steaks-filets']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M452" t="inlineStr">
         <is>
-          <t>Délicorn BBQ Grillsteak 2 x100g 5.95 Schweizer Franken</t>
+          <t>Délicorn Schnitzel mit Käsefüllung 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -31658,7 +31658,7 @@
       <c r="N453" t="inlineStr"/>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -31727,7 +31727,7 @@
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -31800,7 +31800,7 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -31865,7 +31865,7 @@
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -31934,7 +31934,7 @@
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -32007,39 +32007,45 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>6845831</t>
+          <t>6362878</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Catalogna</t>
+          <t>Garden Gourmet vegetarischer Burger</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/catalogna/p/6845831</t>
-        </is>
-      </c>
-      <c r="D459" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/garden-gourmet-vegetarischer-burger/p/6362878</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>29</v>
+      </c>
       <c r="E459" t="n">
-        <v>0</v>
-      </c>
-      <c r="F459" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>Garden Gourmet</t>
+        </is>
+      </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>0.79/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -32049,7 +32055,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -32059,56 +32065,54 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M459" t="inlineStr">
         <is>
-          <t>Catalogna 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N459" t="inlineStr"/>
+          <t>Garden Gourmet vegetarischer Burger 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N459" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>6362878</t>
+          <t>6845831</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Garden Gourmet vegetarischer Burger</t>
+          <t>Catalogna</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/garden-gourmet-vegetarischer-burger/p/6362878</t>
-        </is>
-      </c>
-      <c r="D460" t="n">
-        <v>29</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/catalogna/p/6845831</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr"/>
       <c r="E460" t="n">
-        <v>4</v>
-      </c>
-      <c r="F460" t="inlineStr">
-        <is>
-          <t>Garden Gourmet</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>0.79/100g</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -32118,7 +32122,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -32128,22 +32132,18 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M460" t="inlineStr">
         <is>
-          <t>Garden Gourmet vegetarischer Burger 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N460" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Catalogna 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -32212,7 +32212,7 @@
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -32285,7 +32285,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -32358,45 +32358,45 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>7038142</t>
+          <t>7102828</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Garden Gourmet Crispy Filet</t>
+          <t>Outlawz Food veganes Schinkentranchen</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/garden-gourmet-crispy-filet/p/7038142</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/outlawz-food-veganes-schinkentranchen/p/7102828</t>
         </is>
       </c>
       <c r="D464" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E464" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>OUTLAWZ Food</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>3.13/100g</t>
+          <t>6.88/100g</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -32406,7 +32406,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -32416,12 +32416,12 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M464" t="inlineStr">
         <is>
-          <t>Garden Gourmet Crispy Filet 5.95 Schweizer Franken</t>
+          <t>Outlawz Food veganes Schinkentranchen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N464" t="inlineStr">
@@ -32431,33 +32431,37 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>3091191</t>
+          <t>7038142</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Maniok ca. 1kg</t>
+          <t>Garden Gourmet Crispy Filet</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/maniok/maniok-ca/p/3091191</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/garden-gourmet-crispy-filet/p/7038142</t>
         </is>
       </c>
       <c r="D465" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E465" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F465" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>Garden Gourmet</t>
+        </is>
+      </c>
       <c r="G465" t="inlineStr">
         <is>
           <t>5.95</t>
@@ -32465,149 +32469,145 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>5.95/1kg</t>
+          <t>3.13/100g</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'maniok']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M465" t="inlineStr">
         <is>
-          <t>Maniok ca. 1kg 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N465" t="inlineStr"/>
+          <t>Garden Gourmet Crispy Filet 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N465" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>6975971</t>
+          <t>3091191</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Délicorn Bio Geschnetzeltes</t>
+          <t>Maniok ca. 1kg</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/delicorn-bio-geschnetzeltes/p/6975971</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/maniok/maniok-ca/p/3091191</t>
         </is>
       </c>
       <c r="D466" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E466" t="n">
-        <v>1</v>
-      </c>
-      <c r="F466" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>2.50/100g</t>
+          <t>5.95/1kg</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'maniok']</t>
         </is>
       </c>
       <c r="M466" t="inlineStr">
         <is>
-          <t>Délicorn Bio Geschnetzeltes 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N466" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Maniok ca. 1kg 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N466" t="inlineStr"/>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>6704473</t>
+          <t>6975971</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Yolo Filets</t>
+          <t>Délicorn Bio Geschnetzeltes</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-filets/p/6704473</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/delicorn-bio-geschnetzeltes/p/6975971</t>
         </is>
       </c>
       <c r="D467" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E467" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>3.31/100g</t>
+          <t>2.50/100g</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -32617,7 +32617,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -32632,7 +32632,7 @@
       </c>
       <c r="M467" t="inlineStr">
         <is>
-          <t>Yolo Filets 5.95 Schweizer Franken</t>
+          <t>Délicorn Bio Geschnetzeltes 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N467" t="inlineStr">
@@ -32642,45 +32642,45 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>7102828</t>
+          <t>6308951</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Outlawz Food veganes Schinkentranchen</t>
+          <t>Primagusto Wildfeigen</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/outlawz-food-veganes-schinkentranchen/p/7102828</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/primagusto-wildfeigen/p/6308951</t>
         </is>
       </c>
       <c r="D468" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E468" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>OUTLAWZ Food</t>
+          <t>Primagusto</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>6.88/100g</t>
+          <t>2.78/100g</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -32690,7 +32690,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -32700,60 +32700,56 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M468" t="inlineStr">
         <is>
-          <t>Outlawz Food veganes Schinkentranchen 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N468" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Primagusto Wildfeigen 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>6308951</t>
+          <t>7082903</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Primagusto Wildfeigen</t>
+          <t>Yolo Cold Meat Slices Pistachio</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/primagusto-wildfeigen/p/6308951</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/yolo-cold-meat-slices-pistachio/p/7082903</t>
         </is>
       </c>
       <c r="D469" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>Primagusto</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>2.78/100g</t>
+          <t>4.00/100g</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -32763,7 +32759,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -32773,39 +32769,43 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M469" t="inlineStr">
         <is>
-          <t>Primagusto Wildfeigen 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N469" t="inlineStr"/>
+          <t>Yolo Cold Meat Slices Pistachio 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N469" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>7082903</t>
+          <t>6704473</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Yolo Cold Meat Slices Pistachio</t>
+          <t>Yolo Filets</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/yolo-cold-meat-slices-pistachio/p/7082903</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-filets/p/6704473</t>
         </is>
       </c>
       <c r="D470" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -32817,12 +32817,12 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>4.00/100g</t>
+          <t>3.31/100g</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -32832,7 +32832,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -32842,12 +32842,12 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M470" t="inlineStr">
         <is>
-          <t>Yolo Cold Meat Slices Pistachio 3.20 Schweizer Franken</t>
+          <t>Yolo Filets 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N470" t="inlineStr">
@@ -32857,7 +32857,7 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -32930,7 +32930,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -33003,7 +33003,7 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -33072,7 +33072,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -33141,7 +33141,7 @@
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -33214,7 +33214,7 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -33283,7 +33283,7 @@
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -33336,7 +33336,7 @@
       <c r="N477" t="inlineStr"/>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -33399,7 +33399,7 @@
       <c r="N478" t="inlineStr"/>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -33472,7 +33472,7 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -33535,7 +33535,7 @@
       <c r="N480" t="inlineStr"/>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -33608,7 +33608,7 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -33681,7 +33681,7 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -33754,7 +33754,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -33819,7 +33819,7 @@
       <c r="N484" t="inlineStr"/>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -33892,7 +33892,7 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -33965,7 +33965,7 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -34034,7 +34034,7 @@
       <c r="N487" t="inlineStr"/>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -34099,7 +34099,7 @@
       <c r="N488" t="inlineStr"/>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -34172,7 +34172,7 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -34245,7 +34245,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -34318,7 +34318,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -34383,7 +34383,7 @@
       <c r="N492" t="inlineStr"/>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -34456,7 +34456,7 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -34525,7 +34525,7 @@
       <c r="N494" t="inlineStr"/>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -34598,7 +34598,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -34671,7 +34671,7 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -34744,7 +34744,7 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -34809,7 +34809,7 @@
       <c r="N498" t="inlineStr"/>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -34882,7 +34882,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -34955,7 +34955,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -35012,7 +35012,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -35085,7 +35085,7 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -35154,7 +35154,7 @@
       <c r="N503" t="inlineStr"/>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -35227,7 +35227,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -35292,7 +35292,7 @@
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -35361,7 +35361,7 @@
       <c r="N506" t="inlineStr"/>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -35434,7 +35434,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -35507,7 +35507,7 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -35580,7 +35580,7 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -35653,7 +35653,7 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -35722,7 +35722,7 @@
       <c r="N511" t="inlineStr"/>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -35791,7 +35791,7 @@
       <c r="N512" t="inlineStr"/>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -35860,7 +35860,7 @@
       <c r="N513" t="inlineStr"/>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -35933,41 +35933,43 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>6756042</t>
+          <t>7014561</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Äpfel Kanzi</t>
+          <t>Yolo Ocean Burger</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/aepfel-kanzi/p/6756042</t>
-        </is>
-      </c>
-      <c r="D515" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/yolo-ocean-burger/p/7014561</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr"/>
       <c r="E515" t="n">
-        <v>3</v>
-      </c>
-      <c r="F515" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>Yolo</t>
+        </is>
+      </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>0.37/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -35977,7 +35979,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -35987,54 +35989,56 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
         </is>
       </c>
       <c r="M515" t="inlineStr">
         <is>
-          <t>Äpfel Kanzi 25% Aktion 2.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N515" t="inlineStr"/>
+          <t>Yolo Ocean Burger 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N515" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>7014561</t>
+          <t>6756042</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Yolo Ocean Burger</t>
+          <t>Äpfel Kanzi</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/yolo-ocean-burger/p/7014561</t>
-        </is>
-      </c>
-      <c r="D516" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/aepfel-kanzi/p/6756042</t>
+        </is>
+      </c>
+      <c r="D516" t="n">
+        <v>1</v>
+      </c>
       <c r="E516" t="n">
-        <v>0</v>
-      </c>
-      <c r="F516" t="inlineStr">
-        <is>
-          <t>Yolo</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>0.37/100g</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -36044,7 +36048,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -36054,22 +36058,18 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="M516" t="inlineStr">
         <is>
-          <t>Yolo Ocean Burger 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N516" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Äpfel Kanzi 25% Aktion 2.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N516" t="inlineStr"/>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -36120,7 +36120,7 @@
       <c r="N517" t="inlineStr"/>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -36185,7 +36185,7 @@
       <c r="N518" t="inlineStr"/>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -36254,7 +36254,7 @@
       <c r="N519" t="inlineStr"/>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -36325,7 +36325,7 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -36398,45 +36398,43 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>6724256</t>
+          <t>7031479</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Steak</t>
+          <t>Betty Bossi Pasta &amp;amp; Pesto Vegan</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/steaks-filets/the-green-mountain-plant-based-steak/p/6724256</t>
-        </is>
-      </c>
-      <c r="D522" t="n">
-        <v>36</v>
-      </c>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-pasta-pesto-vegan/p/7031479</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr"/>
       <c r="E522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>4.75/100g</t>
+          <t>1.85/100g</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -36446,7 +36444,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -36456,12 +36454,12 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'steaks-filets']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M522" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Steak 9.50 Schweizer Franken</t>
+          <t>Betty Bossi Pasta &amp;amp; Pesto Vegan 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N522" t="inlineStr">
@@ -36471,43 +36469,45 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>7031479</t>
+          <t>6724256</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Betty Bossi Pasta &amp;amp; Pesto Vegan</t>
+          <t>The Green Mountain plant-based Steak</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-pasta-pesto-vegan/p/7031479</t>
-        </is>
-      </c>
-      <c r="D523" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/steaks-filets/the-green-mountain-plant-based-steak/p/6724256</t>
+        </is>
+      </c>
+      <c r="D523" t="n">
+        <v>36</v>
+      </c>
       <c r="E523" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>1.85/100g</t>
+          <t>4.75/100g</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -36517,7 +36517,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -36527,12 +36527,12 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'steaks-filets']</t>
         </is>
       </c>
       <c r="M523" t="inlineStr">
         <is>
-          <t>Betty Bossi Pasta &amp;amp; Pesto Vegan 4.80 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Steak 9.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N523" t="inlineStr">
@@ -36542,7 +36542,7 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -36611,7 +36611,7 @@
       <c r="N524" t="inlineStr"/>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -36676,7 +36676,7 @@
       <c r="N525" t="inlineStr"/>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -36747,7 +36747,7 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -36818,7 +36818,7 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -36889,7 +36889,7 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -36952,7 +36952,7 @@
       <c r="N529" t="inlineStr"/>
       <c r="O529" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -37023,7 +37023,7 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -37088,7 +37088,7 @@
       <c r="N531" t="inlineStr"/>
       <c r="O531" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
@@ -37153,7 +37153,7 @@
       <c r="N532" t="inlineStr"/>
       <c r="O532" t="inlineStr">
         <is>
-          <t>2023-03-04 12:57:18</t>
+          <t>2023-03-04 20:52:25</t>
         </is>
       </c>
     </row>
